--- a/internship_form31.xlsx
+++ b/internship_form31.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\MyTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F0E4A1-9CA7-4101-9E1D-E3D4AAB1507D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBF75A5-95FC-4EBF-8908-F6045220DBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bO460l/q38hcX+I6RjEDyaaKqPLmMIH1SlWgl6kF0SfnvcLmGVR/gVPboUALJLRpdybxkSasnje1BZNEi8fASA==" workbookSaltValue="d3e9DO+x9BA/CU0B9Kki1g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="申込書" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
   <si>
     <t>年齢</t>
     <rPh sb="0" eb="2">
@@ -878,10 +878,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>080-8376-0234</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Kouma9140@gmail.com</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1030,7 +1026,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>今回体験したいことは、実際のプロの開発現場の空気感を感じてみたいです。実際のプロの開発者の方に自分のコードを見てもらう機会などなかなかないのでそれを無駄にせずにしっかり学び、自分の作品に落としこむところまで頑張りたいと考えています。私の将来やりたいことはグラフィック関係のプログラマーになりたいと考えています。実際にゲーム制作をやってみて感じたのですが、どんなに面白いゲームを作っても演出が何もなければ面白さは半分以下になると感じました。</t>
+    <t>今回体験したいことは、実際のプロの開発現場の空気感を感じてみたいです。実際のプロの開発者の方に自分のコードを見てもらう機会などなかなかないのでそれを無駄にせずにしっかり学び、自分の作品に落としこむところまで頑張りたいと考えています。私の将来やりたいことはグラフィック関係のプログラマーになりたいと考えています。実際にゲーム制作をやってみて感じたのですが、どんなに面白いゲームを作っても演出が何もなければ面白さは半分以下になると感じました。なので、将来的にはシェーダーなどを使用してグラフィック関係からゲーム開発に携わっていきたいと考えています。</t>
     <rPh sb="0" eb="4">
       <t>コンカイタイケン</t>
     </rPh>
@@ -1126,6 +1122,918 @@
     </rPh>
     <rPh sb="213" eb="214">
       <t>カン</t>
+    </rPh>
+    <rPh sb="223" eb="226">
+      <t>ショウライテキ</t>
+    </rPh>
+    <rPh sb="236" eb="238">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="253" eb="255">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="256" eb="257">
+      <t>タズサ</t>
+    </rPh>
+    <rPh sb="265" eb="266">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私の強みはスポーツ経験があることだと思います。私は小さいころからやると決めたことは最後までやり遂げるという考えを大事にしており、小学校1年生から高校3年生までの12年間バスケ部に所属し続けました。そのおかげで体力、精神力ともに鍛えられ、チームとのコミュニケーションが大事なスポーツでもあったのでコミュニケーション能力も鍛えることができました。ゲーム開発においても、この強みは生かされており、一度作ろうと立案し、開発を始めたプロジェクトは何があっても完成させることができています。それを支えるのがスポーツの中で鍛えられた体力、精神力だと考えています。ゲームを開発するうえでどんなに技術力があっても、最後までやり遂げる体力、精神力がなければ、完成までもっていくことができません。私はまだ他人に自慢できるほどのコーディング能力はありませんが、スポーツの中で鍛えられたコミュニケーション能力を生かし、先生や外部講師の方々の力を借り、できないならできないなりに泥臭く頑張って行きたいと考えています。私が今回のインターンシップに参加した際にはこの体力、精神力、コミュニケーション能力を生かし、プロの開発者の方々から技術を学び、自分の今後の作品に生かしていけるように努力していきたいと考えています。</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ダイジ</t>
+    </rPh>
+    <rPh sb="64" eb="67">
+      <t>ショウガッコウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ネンセイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>コウコウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ネンセイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ネンカン</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="107" eb="110">
+      <t>セイシンリョク</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ダイジ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="159" eb="160">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="197" eb="198">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>リツアン</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="208" eb="209">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="218" eb="219">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="224" eb="226">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="242" eb="243">
+      <t>ササ</t>
+    </rPh>
+    <rPh sb="252" eb="253">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="254" eb="255">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="259" eb="261">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="262" eb="265">
+      <t>セイシンリョク</t>
+    </rPh>
+    <rPh sb="267" eb="268">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="278" eb="280">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="289" eb="292">
+      <t>ギジュツリョク</t>
+    </rPh>
+    <rPh sb="298" eb="300">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="304" eb="305">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="307" eb="309">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="310" eb="313">
+      <t>セイシンリョク</t>
+    </rPh>
+    <rPh sb="319" eb="321">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="337" eb="338">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="341" eb="343">
+      <t>タニン</t>
+    </rPh>
+    <rPh sb="344" eb="346">
+      <t>ジマン</t>
+    </rPh>
+    <rPh sb="358" eb="360">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="373" eb="374">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="375" eb="376">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="389" eb="391">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="392" eb="393">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="396" eb="398">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="399" eb="403">
+      <t>ガイブコウシ</t>
+    </rPh>
+    <rPh sb="404" eb="410">
+      <t>カタガタノチカラヲカ</t>
+    </rPh>
+    <rPh sb="425" eb="427">
+      <t>ドロクサ</t>
+    </rPh>
+    <rPh sb="428" eb="430">
+      <t>ガンバ</t>
+    </rPh>
+    <rPh sb="432" eb="433">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="437" eb="438">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="444" eb="445">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="446" eb="448">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="458" eb="460">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="462" eb="463">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="467" eb="469">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="470" eb="473">
+      <t>セイシンリョク</t>
+    </rPh>
+    <rPh sb="483" eb="485">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="486" eb="487">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="493" eb="496">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="497" eb="499">
+      <t>カタガタ</t>
+    </rPh>
+    <rPh sb="501" eb="503">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="504" eb="505">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="507" eb="509">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="510" eb="512">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="513" eb="515">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="516" eb="517">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="526" eb="528">
+      <t>ドリョク</t>
+    </rPh>
+    <rPh sb="535" eb="536">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>080-8376‐0234</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>080-8562-7474</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイバーコネクトツー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベルファイブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムソフト・ベータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CastleCrashers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昔ながらのベルトスクロールアクションゲームでアクションの内容としては攻撃と魔法と移動くらいで難しい操作もなく、シンプルなゲームになっているのですが、世界観が面白いと感じました。キャラクターの見た目はかわいいのに、急に仲間同士で殺し合いを始めたり、糞尿をまき散らしながら戦ったりとかわいいキャラクターとのギャップが激しかったです。友人とともにプレイしたのですが、基本的に全員笑いながらワイワイ楽しむことができました。</t>
+    <rPh sb="0" eb="1">
+      <t>ムカシ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="74" eb="77">
+      <t>セカイカン</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>オモシロ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="108" eb="112">
+      <t>ナカマドウシ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>コロ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>フンニョウ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>ハゲ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>ユウジン</t>
+    </rPh>
+    <rPh sb="180" eb="183">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>ワラ</t>
+    </rPh>
+    <rPh sb="195" eb="196">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ELDEN RING</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オープンワールドのいわゆる死にゲーなのですが、私が面白いと感じた部分は、ボスとの戦いです。基本的に何度も殺されながらボスの動きを覚え、戦うゲームなのですが、ボスのレベルデザインがとても丁寧にされており、もう少しで勝てるのに、という感情に何度もなりました。心が折れそうになる時もありましたが、ボスに勝った時の喜びはほかのゲームではなかなか味わないほどの大きさがあると感じます。</t>
+    <rPh sb="13" eb="14">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>オモシロ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>コロ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オボ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>テイネイ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>カンジョウ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>ヨロコ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私はゲーム業界に対して、体力、精神力が大きく要求される業界だというイメージを持っています。もちろんゲーム開発を行っていくうえで技術力や情報収集能力も必要とされてくるとは思うのですが、それ以上にゲームを完成させるには体力や精神力が必要になってくると感じます。自分でゲームを開発してみて感じましたが、演出をどこまでこだわるかやどこまでプレイヤーに対した配慮を行うことができるのかは最終的には自分のやる気、体力などの問題になってくると思いました。そして、ゲームを開発できたとしても買ってくれた人が全員面白いと言ってくれるわけではないので、そのような声にメンタルをやられずに自分のゲームに自信を持つことが業界で仕事をしていくには技術力と同じくらい大事なことだと私は考えます。体力、精神力、技術力、コミュニケーション能力など、多くの技術が求められる業界ではあると思うのですが、それ以上に子供のころから遊んでいたゲームを作ることができる、という夢をかなえることができるということはほかの業種では得られないことだと感じます。業界に入り、生活していくことがとても大変なことだとは感じていますが、ほかの仕事ではかなえることができない夢をかなえることができる仕事だと私は考えています。</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギョウカイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>セイシンリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ギョウカイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>ギジュツリョク</t>
+    </rPh>
+    <rPh sb="67" eb="73">
+      <t>ジョウホウシュウシュウノウリョク</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="110" eb="113">
+      <t>セイシンリョク</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>ハイリョ</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="188" eb="191">
+      <t>サイシュウテキ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="198" eb="199">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="214" eb="215">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="237" eb="238">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="243" eb="244">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="247" eb="249">
+      <t>オモシロ</t>
+    </rPh>
+    <rPh sb="251" eb="252">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="271" eb="272">
+      <t>コエ</t>
+    </rPh>
+    <rPh sb="283" eb="285">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="290" eb="292">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="293" eb="294">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="298" eb="300">
+      <t>ギョウカイ</t>
+    </rPh>
+    <rPh sb="301" eb="303">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="310" eb="313">
+      <t>ギジュツリョク</t>
+    </rPh>
+    <rPh sb="314" eb="315">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="319" eb="321">
+      <t>ダイジ</t>
+    </rPh>
+    <rPh sb="326" eb="327">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="328" eb="329">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="333" eb="335">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="336" eb="339">
+      <t>セイシンリョク</t>
+    </rPh>
+    <rPh sb="340" eb="343">
+      <t>ギジュツリョク</t>
+    </rPh>
+    <rPh sb="353" eb="355">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="358" eb="359">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="361" eb="363">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="364" eb="365">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="369" eb="371">
+      <t>ギョウカイ</t>
+    </rPh>
+    <rPh sb="376" eb="377">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="385" eb="387">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="388" eb="390">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="395" eb="396">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="404" eb="405">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="416" eb="417">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="437" eb="439">
+      <t>ギョウシュ</t>
+    </rPh>
+    <rPh sb="441" eb="442">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="450" eb="451">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="455" eb="457">
+      <t>ギョウカイ</t>
+    </rPh>
+    <rPh sb="458" eb="459">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="461" eb="463">
+      <t>セイカツ</t>
+    </rPh>
+    <rPh sb="473" eb="475">
+      <t>タイヘン</t>
+    </rPh>
+    <rPh sb="481" eb="482">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="492" eb="494">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="507" eb="508">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="519" eb="521">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="523" eb="524">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="525" eb="526">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私が最近関心があることは筋トレと食事管理です。私は3か月ほど前からジムに入会し筋トレを3日1回ほどのペースで通っています。始めたばかりということもあり、体の変化を顕著に感じることができています。ですが、Youtubeなどで情報を集めてみるとやはり、食事を変えないと効率が落ちてしまう、あまり効率が良くない、との情報をえることができたので、2か月ほど前から食事管理も行っています。食事管理を始めて自分の摂取カロリーやタンパク質、脂質、炭水化物を主に記録しているのですが、一人暮らしを始めてからの食事を思い出し、調べてみるとかなり偏った食事をしていたことに気づきました。この気づきを得てから食事を大幅に改善したのですが、筋トレの効果も相まって、3週間で3キロやせることができ、痩せるだけでなく、筋トレでもベンチプレスの重量を30kg伸ばすことができました。そして、筋トレと食事管理を始めてから、体調不良になることがなくなりました。病気になるというほどのことはもとから少なかったのですが、ここ3か月は体調を崩して学校を休んでしまうということが一度もありませんでした。ゲーム制作サークルでも部長を務めているのですが、まだサークルが立ち上がって２年目なので新入生歓迎の準備や入ってきた後の対処などがしっかり定まっていないので、考えることが多く、タスクの量が増えてしまい、相当疲れがたまってしまっていたのですが、以前の自分なら少しメンタルが追い込まれてしまっていたかもしれません。ですが、筋トレと食事管理のおかげかメンタルが追い込まれることもなく、無事、完璧な新入生歓迎とその後の対応を行うことができました。やはり、健康と精神状態は筋肉と食事から安定させることができると感じます。これからも、この筋トレと食事管理などをしっかりと行っていき、健康的な体を作り、ゲーム制作に励んで行こうと思います。</t>
+    <rPh sb="23" eb="24">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>_x0000__x0017_</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>_x0001__x0003_</t>
+    </rPh>
+    <rPh sb="285" eb="286">
+      <t>_x001B_</t>
+    </rPh>
+    <rPh sb="289" eb="290">
+      <t>_x0001_</t>
+    </rPh>
+    <rPh sb="293" eb="295">
+      <t>_x0005__x001E__x0001__x0007_</t>
+    </rPh>
+    <rPh sb="296" eb="298">
+      <t>į_x0001__x0008_ĳ</t>
+    </rPh>
+    <rPh sb="299" eb="301">
+      <t>_x0001_	ķ_x0002_</t>
+    </rPh>
+    <rPh sb="308" eb="309">
+      <t>_x000D_ĺ</t>
+    </rPh>
+    <rPh sb="312" eb="314">
+      <t>_x0002__x0011_Ľ</t>
+    </rPh>
+    <rPh sb="315" eb="316">
+      <t>_x0002__x0015_</t>
+    </rPh>
+    <rPh sb="321" eb="323">
+      <t>ņ_x0001__x0017_Ŋ_x0002_</t>
+    </rPh>
+    <rPh sb="336" eb="337">
+      <t>_x001A_</t>
+    </rPh>
+    <rPh sb="345" eb="346">
+      <t>ō_x0001_</t>
+    </rPh>
+    <rPh sb="357" eb="359">
+      <t>_x001C_œ_x0002_!Ţ_x0001_</t>
+    </rPh>
+    <rPh sb="364" eb="365">
+      <t>"</t>
+    </rPh>
+    <rPh sb="380" eb="381">
+      <t>ū_x0001_</t>
+    </rPh>
+    <rPh sb="384" eb="388">
+      <t>$ŷ_x0002_*ž_x0001_+</t>
+    </rPh>
+    <rPh sb="389" eb="390">
+      <t>Ǝ_x0001_</t>
+    </rPh>
+    <rPh sb="395" eb="399">
+      <t>-ƒ_x0004_4Ɨ_x0001_6Ɲ_x0004_</t>
+    </rPh>
+    <rPh sb="413" eb="415">
+      <t>?Ư_x0002_C</t>
+    </rPh>
+    <rPh sb="431" eb="432">
+      <t>ǁ_x0001_</t>
+    </rPh>
+    <rPh sb="445" eb="446">
+      <t>EǏ</t>
+    </rPh>
+    <rPh sb="447" eb="449">
+      <t>_x0001_GǑ_x0002_L</t>
+    </rPh>
+    <rPh sb="450" eb="451">
+      <t>ǔ_x0001_</t>
+    </rPh>
+    <rPh sb="453" eb="455">
+      <t>NǗ_x0002_R</t>
+    </rPh>
+    <rPh sb="456" eb="457">
+      <t>ǚ_x0001_</t>
+    </rPh>
+    <rPh sb="468" eb="470">
+      <t>TǦ_x0002_</t>
+    </rPh>
+    <rPh sb="483" eb="485">
+      <t>Wǵ_x0002_[</t>
+    </rPh>
+    <rPh sb="491" eb="493">
+      <t>ǽ_x0002__Ȁ</t>
+    </rPh>
+    <rPh sb="494" eb="495">
+      <t>_x0001_a</t>
+    </rPh>
+    <rPh sb="511" eb="512">
+      <t>ȑ</t>
+    </rPh>
+    <rPh sb="513" eb="514">
+      <t>_x0001_</t>
+    </rPh>
+    <rPh sb="518" eb="520">
+      <t>bȓ_x0001_</t>
+    </rPh>
+    <rPh sb="523" eb="528">
+      <t>cȘ_x0002_fȝ_x0005_qȣ_x0002_uȦ</t>
+    </rPh>
+    <rPh sb="529" eb="531">
+      <t>_x0001_wȫ_x0001_</t>
+    </rPh>
+    <rPh sb="532" eb="533">
+      <t>yȭ</t>
+    </rPh>
+    <rPh sb="537" eb="538">
+      <t>_x0002_}</t>
+    </rPh>
+    <rPh sb="539" eb="541">
+      <t>ȶ_x0001_ɀ</t>
+    </rPh>
+    <rPh sb="548" eb="549">
+      <t>_x0001_</t>
+    </rPh>
+    <rPh sb="558" eb="559">
+      <t>Ɇ_x0001_</t>
+    </rPh>
+    <rPh sb="564" eb="565">
+      <t>ɍ_x0001_</t>
+    </rPh>
+    <rPh sb="571" eb="572">
+      <t>ɏ_x0001_</t>
+    </rPh>
+    <rPh sb="573" eb="574">
+      <t></t>
+    </rPh>
+    <rPh sb="580" eb="583">
+      <t>ɖ_x0003_ɪ_x0002_</t>
+    </rPh>
+    <rPh sb="600" eb="602">
+      <t>ɭ_x0002_</t>
+    </rPh>
+    <rPh sb="603" eb="605">
+      <t>ɱ_x0001_</t>
+    </rPh>
+    <rPh sb="607" eb="608">
+      <t>ɸ_x0001_</t>
+    </rPh>
+    <rPh sb="614" eb="615">
+      <t></t>
+    </rPh>
+    <rPh sb="616" eb="617">
+      <t>ɺ</t>
+    </rPh>
+    <rPh sb="638" eb="639">
+      <t>_x0001_</t>
+    </rPh>
+    <rPh sb="656" eb="657">
+      <t>ʐ</t>
+    </rPh>
+    <rPh sb="658" eb="659">
+      <t>_x0001_</t>
+    </rPh>
+    <rPh sb="668" eb="670">
+      <t>ʢ</t>
+    </rPh>
+    <rPh sb="671" eb="673">
+      <t>_x0001_ʤ_x0001_</t>
+    </rPh>
+    <rPh sb="674" eb="679">
+      <t>ʮ_x0002_ʱ_x0002_¢ʴ_x0005_­ʼ</t>
+    </rPh>
+    <rPh sb="682" eb="683">
+      <t>_x0001_</t>
+    </rPh>
+    <rPh sb="684" eb="686">
+      <t>®ʾ_x0002_²</t>
+    </rPh>
+    <rPh sb="687" eb="688">
+      <t>ˁ_x0001_µ</t>
+    </rPh>
+    <rPh sb="702" eb="704">
+      <t>ː_x0002_¹˫</t>
+    </rPh>
+    <rPh sb="729" eb="730">
+      <t>_x0001_»</t>
+    </rPh>
+    <rPh sb="742" eb="743">
+      <t>˸_x0001_</t>
+    </rPh>
+    <rPh sb="746" eb="750">
+      <t>½˼_x0004_Ä̈_x0001_Ç</t>
+    </rPh>
+    <rPh sb="758" eb="759">
+      <t>̎_x0003_Í</t>
+    </rPh>
+    <rPh sb="764" eb="767">
+      <t>̒_x0001_Ð̔_x0001_Ò</t>
+    </rPh>
+    <rPh sb="768" eb="769">
+      <t>̚_x0002_Ö</t>
+    </rPh>
+    <rPh sb="770" eb="771">
+      <t>̝_x0001_</t>
+    </rPh>
+    <rPh sb="776" eb="778">
+      <t>Ø̠_x0001_Ù</t>
+    </rPh>
+    <rPh sb="779" eb="780">
+      <t>̤_x0001_</t>
+    </rPh>
+    <rPh sb="782" eb="783">
+      <t>_x0000_</t>
+    </rPh>
+    <rPh sb="786" eb="787">
+      <t/>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1137,7 +2045,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="00"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1273,6 +2181,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1961,7 +2877,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2729,6 +3645,22 @@
     </xf>
     <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2820,7 +3752,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2828,7 +3760,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6142,8 +7074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51:R56"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A79" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102:R106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6701,7 +7633,7 @@
       <c r="C24" s="175"/>
       <c r="D24" s="25"/>
       <c r="E24" s="237" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="189"/>
       <c r="G24" s="189"/>
@@ -6765,7 +7697,7 @@
       <c r="C27" s="178"/>
       <c r="D27" s="25"/>
       <c r="E27" s="189" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F27" s="189"/>
       <c r="G27" s="189"/>
@@ -6831,7 +7763,7 @@
       <c r="C30" s="175"/>
       <c r="D30" s="25"/>
       <c r="E30" s="130" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F30" s="130"/>
       <c r="G30" s="130"/>
@@ -6845,7 +7777,7 @@
       </c>
       <c r="N30" s="183"/>
       <c r="O30" s="130" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P30" s="130"/>
       <c r="Q30" s="130"/>
@@ -6899,7 +7831,7 @@
       <c r="C33" s="175"/>
       <c r="D33" s="25"/>
       <c r="E33" s="130" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F33" s="130"/>
       <c r="G33" s="130"/>
@@ -6962,7 +7894,9 @@
       <c r="B36" s="177"/>
       <c r="C36" s="178"/>
       <c r="D36" s="25"/>
-      <c r="E36" s="189"/>
+      <c r="E36" s="189" t="s">
+        <v>86</v>
+      </c>
       <c r="F36" s="189"/>
       <c r="G36" s="189"/>
       <c r="H36" s="189"/>
@@ -7062,7 +7996,9 @@
       <c r="L40" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="M40" s="130"/>
+      <c r="M40" s="130" t="s">
+        <v>87</v>
+      </c>
       <c r="N40" s="130"/>
       <c r="O40" s="130"/>
       <c r="P40" s="130"/>
@@ -7090,7 +8026,9 @@
       <c r="L41" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="M41" s="130"/>
+      <c r="M41" s="130" t="s">
+        <v>88</v>
+      </c>
       <c r="N41" s="130"/>
       <c r="O41" s="130"/>
       <c r="P41" s="130"/>
@@ -7118,7 +8056,9 @@
       <c r="L42" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="M42" s="130"/>
+      <c r="M42" s="130" t="s">
+        <v>89</v>
+      </c>
       <c r="N42" s="130"/>
       <c r="O42" s="130"/>
       <c r="P42" s="130"/>
@@ -7318,7 +8258,7 @@
       <c r="B51" s="174"/>
       <c r="C51" s="175"/>
       <c r="D51" s="168" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E51" s="140"/>
       <c r="F51" s="140"/>
@@ -7437,7 +8377,7 @@
     </row>
     <row r="57" spans="1:23" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A57" s="155" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B57" s="156"/>
       <c r="C57" s="156"/>
@@ -7458,7 +8398,9 @@
       <c r="R57" s="157"/>
     </row>
     <row r="58" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="139"/>
+      <c r="A58" s="139" t="s">
+        <v>84</v>
+      </c>
       <c r="B58" s="140"/>
       <c r="C58" s="140"/>
       <c r="D58" s="140"/>
@@ -7740,7 +8682,9 @@
       <c r="R71" s="157"/>
     </row>
     <row r="72" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="139"/>
+      <c r="A72" s="139" t="s">
+        <v>95</v>
+      </c>
       <c r="B72" s="140"/>
       <c r="C72" s="140"/>
       <c r="D72" s="140"/>
@@ -8330,7 +9274,7 @@
         <v>37</v>
       </c>
       <c r="D100" s="151" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E100" s="151"/>
       <c r="F100" s="151"/>
@@ -8374,104 +9318,104 @@
         <v>39</v>
       </c>
       <c r="B102" s="149"/>
-      <c r="C102" s="158" t="s">
-        <v>82</v>
-      </c>
-      <c r="D102" s="158"/>
-      <c r="E102" s="158"/>
-      <c r="F102" s="158"/>
-      <c r="G102" s="158"/>
-      <c r="H102" s="158"/>
-      <c r="I102" s="158"/>
-      <c r="J102" s="158"/>
-      <c r="K102" s="158"/>
-      <c r="L102" s="158"/>
-      <c r="M102" s="158"/>
-      <c r="N102" s="158"/>
-      <c r="O102" s="158"/>
-      <c r="P102" s="158"/>
-      <c r="Q102" s="158"/>
-      <c r="R102" s="159"/>
+      <c r="C102" s="238" t="s">
+        <v>81</v>
+      </c>
+      <c r="D102" s="238"/>
+      <c r="E102" s="238"/>
+      <c r="F102" s="238"/>
+      <c r="G102" s="238"/>
+      <c r="H102" s="238"/>
+      <c r="I102" s="238"/>
+      <c r="J102" s="238"/>
+      <c r="K102" s="238"/>
+      <c r="L102" s="238"/>
+      <c r="M102" s="238"/>
+      <c r="N102" s="238"/>
+      <c r="O102" s="238"/>
+      <c r="P102" s="238"/>
+      <c r="Q102" s="238"/>
+      <c r="R102" s="239"/>
     </row>
     <row r="103" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="148"/>
       <c r="B103" s="149"/>
-      <c r="C103" s="158"/>
-      <c r="D103" s="158"/>
-      <c r="E103" s="158"/>
-      <c r="F103" s="158"/>
-      <c r="G103" s="158"/>
-      <c r="H103" s="158"/>
-      <c r="I103" s="158"/>
-      <c r="J103" s="158"/>
-      <c r="K103" s="158"/>
-      <c r="L103" s="158"/>
-      <c r="M103" s="158"/>
-      <c r="N103" s="158"/>
-      <c r="O103" s="158"/>
-      <c r="P103" s="158"/>
-      <c r="Q103" s="158"/>
-      <c r="R103" s="159"/>
+      <c r="C103" s="238"/>
+      <c r="D103" s="238"/>
+      <c r="E103" s="238"/>
+      <c r="F103" s="238"/>
+      <c r="G103" s="238"/>
+      <c r="H103" s="238"/>
+      <c r="I103" s="238"/>
+      <c r="J103" s="238"/>
+      <c r="K103" s="238"/>
+      <c r="L103" s="238"/>
+      <c r="M103" s="238"/>
+      <c r="N103" s="238"/>
+      <c r="O103" s="238"/>
+      <c r="P103" s="238"/>
+      <c r="Q103" s="238"/>
+      <c r="R103" s="239"/>
     </row>
     <row r="104" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="56"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="158"/>
-      <c r="D104" s="158"/>
-      <c r="E104" s="158"/>
-      <c r="F104" s="158"/>
-      <c r="G104" s="158"/>
-      <c r="H104" s="158"/>
-      <c r="I104" s="158"/>
-      <c r="J104" s="158"/>
-      <c r="K104" s="158"/>
-      <c r="L104" s="158"/>
-      <c r="M104" s="158"/>
-      <c r="N104" s="158"/>
-      <c r="O104" s="158"/>
-      <c r="P104" s="158"/>
-      <c r="Q104" s="158"/>
-      <c r="R104" s="159"/>
+      <c r="C104" s="238"/>
+      <c r="D104" s="238"/>
+      <c r="E104" s="238"/>
+      <c r="F104" s="238"/>
+      <c r="G104" s="238"/>
+      <c r="H104" s="238"/>
+      <c r="I104" s="238"/>
+      <c r="J104" s="238"/>
+      <c r="K104" s="238"/>
+      <c r="L104" s="238"/>
+      <c r="M104" s="238"/>
+      <c r="N104" s="238"/>
+      <c r="O104" s="238"/>
+      <c r="P104" s="238"/>
+      <c r="Q104" s="238"/>
+      <c r="R104" s="239"/>
     </row>
     <row r="105" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="56"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="158"/>
-      <c r="D105" s="158"/>
-      <c r="E105" s="158"/>
-      <c r="F105" s="158"/>
-      <c r="G105" s="158"/>
-      <c r="H105" s="158"/>
-      <c r="I105" s="158"/>
-      <c r="J105" s="158"/>
-      <c r="K105" s="158"/>
-      <c r="L105" s="158"/>
-      <c r="M105" s="158"/>
-      <c r="N105" s="158"/>
-      <c r="O105" s="158"/>
-      <c r="P105" s="158"/>
-      <c r="Q105" s="158"/>
-      <c r="R105" s="159"/>
+      <c r="C105" s="238"/>
+      <c r="D105" s="238"/>
+      <c r="E105" s="238"/>
+      <c r="F105" s="238"/>
+      <c r="G105" s="238"/>
+      <c r="H105" s="238"/>
+      <c r="I105" s="238"/>
+      <c r="J105" s="238"/>
+      <c r="K105" s="238"/>
+      <c r="L105" s="238"/>
+      <c r="M105" s="238"/>
+      <c r="N105" s="238"/>
+      <c r="O105" s="238"/>
+      <c r="P105" s="238"/>
+      <c r="Q105" s="238"/>
+      <c r="R105" s="239"/>
     </row>
     <row r="106" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A106" s="65"/>
       <c r="B106" s="66"/>
-      <c r="C106" s="166"/>
-      <c r="D106" s="166"/>
-      <c r="E106" s="166"/>
-      <c r="F106" s="166"/>
-      <c r="G106" s="166"/>
-      <c r="H106" s="166"/>
-      <c r="I106" s="166"/>
-      <c r="J106" s="166"/>
-      <c r="K106" s="166"/>
-      <c r="L106" s="166"/>
-      <c r="M106" s="166"/>
-      <c r="N106" s="166"/>
-      <c r="O106" s="166"/>
-      <c r="P106" s="166"/>
-      <c r="Q106" s="166"/>
-      <c r="R106" s="167"/>
+      <c r="C106" s="240"/>
+      <c r="D106" s="240"/>
+      <c r="E106" s="240"/>
+      <c r="F106" s="240"/>
+      <c r="G106" s="240"/>
+      <c r="H106" s="240"/>
+      <c r="I106" s="240"/>
+      <c r="J106" s="240"/>
+      <c r="K106" s="240"/>
+      <c r="L106" s="240"/>
+      <c r="M106" s="240"/>
+      <c r="N106" s="240"/>
+      <c r="O106" s="240"/>
+      <c r="P106" s="240"/>
+      <c r="Q106" s="240"/>
+      <c r="R106" s="241"/>
     </row>
     <row r="107" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="191" t="s">
@@ -8481,7 +9425,9 @@
       <c r="C107" s="193" t="s">
         <v>37</v>
       </c>
-      <c r="D107" s="194"/>
+      <c r="D107" s="194" t="s">
+        <v>90</v>
+      </c>
       <c r="E107" s="194"/>
       <c r="F107" s="194"/>
       <c r="G107" s="194"/>
@@ -8524,7 +9470,9 @@
         <v>39</v>
       </c>
       <c r="B109" s="149"/>
-      <c r="C109" s="158"/>
+      <c r="C109" s="158" t="s">
+        <v>91</v>
+      </c>
       <c r="D109" s="158"/>
       <c r="E109" s="158"/>
       <c r="F109" s="158"/>
@@ -8629,7 +9577,9 @@
       <c r="C114" s="193" t="s">
         <v>37</v>
       </c>
-      <c r="D114" s="194"/>
+      <c r="D114" s="194" t="s">
+        <v>92</v>
+      </c>
       <c r="E114" s="194"/>
       <c r="F114" s="194"/>
       <c r="G114" s="194"/>
@@ -8672,7 +9622,9 @@
         <v>39</v>
       </c>
       <c r="B116" s="149"/>
-      <c r="C116" s="158"/>
+      <c r="C116" s="158" t="s">
+        <v>93</v>
+      </c>
       <c r="D116" s="158"/>
       <c r="E116" s="158"/>
       <c r="F116" s="158"/>
@@ -8812,7 +9764,9 @@
       <c r="R122" s="157"/>
     </row>
     <row r="123" spans="1:18" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="139"/>
+      <c r="A123" s="139" t="s">
+        <v>94</v>
+      </c>
       <c r="B123" s="140"/>
       <c r="C123" s="140"/>
       <c r="D123" s="140"/>
